--- a/data/trans_camb/P05A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P05A_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>6.822146667146006</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-8.630226411596306</v>
+        <v>-8.630226411596304</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>9.437822900117965</v>
@@ -664,7 +664,7 @@
         <v>7.201339230746856</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-8.694179872393576</v>
+        <v>-8.694179872393571</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.300481346606765</v>
+        <v>6.711625213936403</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1159251321157775</v>
+        <v>0.3852501786886524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.38347705994963</v>
+        <v>-15.08949139349402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6769945800597648</v>
+        <v>2.009108022227499</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6273523918447899</v>
+        <v>-0.02779161939947837</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-15.94681988511218</v>
+        <v>-15.722726187967</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.104933411658</v>
+        <v>6.339420394626713</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.090213919001396</v>
+        <v>1.438822520689008</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-13.04718056921551</v>
+        <v>-13.35065806838206</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.19655790969653</v>
+        <v>19.54654241402302</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.00590207001817</v>
+        <v>13.37109742829566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.887040331062188</v>
+        <v>-3.388285306009133</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.94980441825328</v>
+        <v>17.54667725497893</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.38221629932413</v>
+        <v>15.65848275227042</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.085692985362879</v>
+        <v>-2.774944856544932</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.55359219247816</v>
+        <v>16.74935076001505</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.22740653137545</v>
+        <v>11.74806874829354</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-4.301145840501853</v>
+        <v>-4.30835161584057</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2146109516031961</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2714894875630912</v>
+        <v>-0.271489487563091</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2820577389646722</v>
@@ -769,7 +769,7 @@
         <v>0.2219517591715661</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2679624518996097</v>
+        <v>-0.2679624518996095</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.177790124252899</v>
+        <v>0.1946510788306945</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.005610811805507434</v>
+        <v>0.01593353991496265</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4166487968206967</v>
+        <v>-0.4205577142679276</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02038782629891844</v>
+        <v>0.04861347798443412</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01582537020032904</v>
+        <v>-0.004010804711459894</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4128131949677607</v>
+        <v>-0.4167488040890432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2071366777939356</v>
+        <v>0.1847676475510204</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06136997760061211</v>
+        <v>0.03992334119705832</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3697176937082048</v>
+        <v>-0.3788816106722911</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7086945474531354</v>
+        <v>0.6841543989763448</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5095704218497287</v>
+        <v>0.4758154909151188</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1002065480792777</v>
+        <v>-0.1106239143673005</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5837068399196842</v>
+        <v>0.5940439452391738</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5709727602982436</v>
+        <v>0.5186802182299978</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0874021897970369</v>
+        <v>-0.09042419303451162</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5480172169179246</v>
+        <v>0.5501334654217963</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4016811541393783</v>
+        <v>0.3805314124646138</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1423423792818178</v>
+        <v>-0.1455861513325969</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>5.278127677981015</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-14.41614315961821</v>
+        <v>-14.41614315961822</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>11.81790338795944</v>
@@ -869,7 +869,7 @@
         <v>8.784403257745593</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.49465205574215</v>
+        <v>-5.494652055742147</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>10.304951431749</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.471274677457397</v>
+        <v>1.845838354788601</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.508669414968013</v>
+        <v>-1.995125840332495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.00367683888446</v>
+        <v>-20.57191244132946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.251026745859652</v>
+        <v>4.583667097344469</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.332970950736935</v>
+        <v>1.827274270993888</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.99280958415493</v>
+        <v>-11.54740634403655</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.49404582096234</v>
+        <v>5.207201642314149</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.011378371096988</v>
+        <v>2.338883926201929</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-14.23626022025821</v>
+        <v>-15.14632493988805</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.47476394216186</v>
+        <v>15.80352217271726</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.2343416299936</v>
+        <v>12.49028059970749</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-8.32636120659946</v>
+        <v>-8.270005394625747</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.56909597889562</v>
+        <v>18.97542774921423</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.91921315324299</v>
+        <v>15.63874642306401</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7197407194874996</v>
+        <v>1.002417437940862</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.88940209234873</v>
+        <v>15.51939089398819</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.85652514354923</v>
+        <v>12.3478721873299</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-5.981270932820267</v>
+        <v>-6.06734512210739</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03481904924588228</v>
+        <v>0.05061416847951274</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07244580799147284</v>
+        <v>-0.05930190754064243</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5978956810755697</v>
+        <v>-0.586351445299262</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1306375339769884</v>
+        <v>0.1372768223296351</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06789709678754731</v>
+        <v>0.0537961098795052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.354981616186894</v>
+        <v>-0.3418182958998356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1653976914600467</v>
+        <v>0.159415051626713</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05973868533806853</v>
+        <v>0.07181442134505073</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4309929132649836</v>
+        <v>-0.4453573802641276</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5917257853233273</v>
+        <v>0.5728810480190333</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4432290417581229</v>
+        <v>0.4520553458313914</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2961009242948834</v>
+        <v>-0.3039417653552091</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6925031352562393</v>
+        <v>0.7161703580768934</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5873409140633844</v>
+        <v>0.5782102689970982</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02267465459461622</v>
+        <v>0.04143483121397021</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5638218312326746</v>
+        <v>0.5469636259630506</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4179726817620976</v>
+        <v>0.4347257116268824</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2110390690127157</v>
+        <v>-0.2180785431734495</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>6.610907004444955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-8.443583837105525</v>
+        <v>-8.443583837105532</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.631872269464475</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.084303928094427</v>
+        <v>5.990040687245251</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7838429073448404</v>
+        <v>0.6171585494143305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.22361354407848</v>
+        <v>-14.356042029361</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.648979152673044</v>
+        <v>-8.281855243766922</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.22008963385512</v>
+        <v>-14.39372888915542</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-25.81122913861049</v>
+        <v>-26.81886290866147</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.408026549284749</v>
+        <v>4.587786881887444</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7538469455865313</v>
+        <v>-0.2813260243154546</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-15.69259455151496</v>
+        <v>-15.47829174390992</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.06657438089173</v>
+        <v>17.46441232800708</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.60078971154697</v>
+        <v>12.31515830863499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.979592343257659</v>
+        <v>-2.48660076431415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.61505180834163</v>
+        <v>12.94078054498575</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.134832881944689</v>
+        <v>7.618781411932408</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-7.996735008163043</v>
+        <v>-8.285456635743333</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.25489438978903</v>
+        <v>14.19541750091425</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.860541382772576</v>
+        <v>9.772186877470581</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-5.845729500259869</v>
+        <v>-5.878374432053455</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2243103310947226</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2864936815559101</v>
+        <v>-0.2864936815559103</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.07040364574822669</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.192108248252772</v>
+        <v>0.1780672485186578</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02028507904757952</v>
+        <v>0.02344200980647449</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4465624074331847</v>
+        <v>-0.446159171271788</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1706956966797135</v>
+        <v>-0.1895828109450819</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2966544268804967</v>
+        <v>-0.3348667731040225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.600602645413721</v>
+        <v>-0.6174935417248435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1361755179257535</v>
+        <v>0.1364127159719657</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02249437001125409</v>
+        <v>-0.009250729526070684</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4551885713968575</v>
+        <v>-0.4537218933188756</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6356249963312951</v>
+        <v>0.6456583968322021</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4701896712494775</v>
+        <v>0.4846930593768989</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1091089994870703</v>
+        <v>-0.09265361129299553</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4004431653143351</v>
+        <v>0.3997208807910313</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2622984079802902</v>
+        <v>0.2393416711785058</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2491292161122211</v>
+        <v>-0.2656471702698906</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5018314161213125</v>
+        <v>0.4972171165409063</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3333621710772022</v>
+        <v>0.3393453240972299</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2034436163519012</v>
+        <v>-0.20336083297955</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.225085638092445</v>
+        <v>6.861079048830885</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.815781685736228</v>
+        <v>2.670054087793145</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.59175599306405</v>
+        <v>-16.35556493147873</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.023364586812373</v>
+        <v>-1.068810096281163</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.194333436626281</v>
+        <v>-3.149315260164997</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-18.65045366076334</v>
+        <v>-18.42927832090389</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.377380663554819</v>
+        <v>5.389802611903501</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.069252858796224</v>
+        <v>1.674576280533798</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-15.90333536755752</v>
+        <v>-16.04601612316215</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.07361459517786</v>
+        <v>14.79405425207194</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.50734052407422</v>
+        <v>10.8632392942222</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-9.480807985118116</v>
+        <v>-9.496390161999662</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.653645517101195</v>
+        <v>9.509428002647326</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.619336815172137</v>
+        <v>6.690608796672525</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-9.729858038472711</v>
+        <v>-9.632635947615988</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.76434200143387</v>
+        <v>11.77970000251633</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.009289466128239</v>
+        <v>7.912194509426207</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-10.49853528634773</v>
+        <v>-10.44758331803557</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2294904172838326</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.4473253588917976</v>
+        <v>-0.4473253588917975</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.120654374224701</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2354571809131264</v>
+        <v>0.2242614306925603</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09144126243914989</v>
+        <v>0.08365049521175888</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5333701192609603</v>
+        <v>-0.5316378148727252</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02791318323708795</v>
+        <v>-0.02742309581567408</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07941518100343409</v>
+        <v>-0.08265775543543871</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4896592077812909</v>
+        <v>-0.487837882721136</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1653775297735154</v>
+        <v>0.1612468436379764</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.06162147884106155</v>
+        <v>0.0509191076132885</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4791376182440027</v>
+        <v>-0.4867170970520042</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5619521378917152</v>
+        <v>0.5378043095761202</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3860996208747369</v>
+        <v>0.3986955729119305</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.3425336599222595</v>
+        <v>-0.3373377572119439</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2938173252035048</v>
+        <v>0.2909443197678648</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2051097837691721</v>
+        <v>0.2074245430929069</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3014905372501277</v>
+        <v>-0.2978469636323848</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3955391728184136</v>
+        <v>0.3933150073144756</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2652276402409988</v>
+        <v>0.2666529819845366</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3441181260106064</v>
+        <v>-0.3480832809057163</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.34304382512069</v>
+        <v>-4.569358644701023</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.910022492599361</v>
+        <v>-3.525600856623822</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.70231021815727</v>
+        <v>-19.17788254985772</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.787035654113874</v>
+        <v>-7.106614846002736</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.978742750957457</v>
+        <v>-7.012793401579634</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-23.11982165334394</v>
+        <v>-23.046835073599</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.790846837469321</v>
+        <v>-4.66897066112618</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.384750018160049</v>
+        <v>-4.160985494577522</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-20.56989358120778</v>
+        <v>-20.26743522427806</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.802681644093509</v>
+        <v>8.563813077295688</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.284309786704378</v>
+        <v>8.966647284376389</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-7.433156847260134</v>
+        <v>-7.462343949461296</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.044825778948929</v>
+        <v>4.027861700763627</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.021566870729329</v>
+        <v>3.849631641600319</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-13.49474021257536</v>
+        <v>-13.41864044879071</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.901600138079456</v>
+        <v>3.980329357712097</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.052139812516715</v>
+        <v>4.469019013964877</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-12.91082568728236</v>
+        <v>-12.37291723332605</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.08154072489754839</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.4195126029336274</v>
+        <v>-0.4195126029336276</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05239036650259825</v>
@@ -1625,7 +1625,7 @@
         <v>-0.006557430019184312</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.4586300585034319</v>
+        <v>-0.458630058503432</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1491905640608036</v>
+        <v>-0.1334190613290379</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1121091077380638</v>
+        <v>-0.09869224854544846</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5574294395309314</v>
+        <v>-0.5365707537625388</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1839205753947622</v>
+        <v>-0.1784559848999213</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1710249694641781</v>
+        <v>-0.1684014942226434</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5515130819206665</v>
+        <v>-0.5558481215164188</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1262427261775305</v>
+        <v>-0.118994538034961</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1132619833810461</v>
+        <v>-0.1112605035139149</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5338231894934619</v>
+        <v>-0.5297238403152112</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2802543726042357</v>
+        <v>0.3068785231150354</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2941222339503127</v>
+        <v>0.317674320266396</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2553629306994437</v>
+        <v>-0.2606608632347007</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.08740861173039234</v>
+        <v>0.1117893524006964</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1155265800773943</v>
+        <v>0.1101482343794201</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3814387684345678</v>
+        <v>-0.3828705194101209</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1169719853538847</v>
+        <v>0.1198158316407632</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1251211054434601</v>
+        <v>0.1308216492144035</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3843622459978784</v>
+        <v>-0.3765940006360882</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>5.424185602970208</v>
+        <v>5.586312900916026</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.09831128728625</v>
+        <v>4.211424734251365</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.75085449164285</v>
+        <v>-13.41586960517734</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.58750762986308</v>
+        <v>3.824376303643085</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.438007355759567</v>
+        <v>-2.904427672692352</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-22.38628938273821</v>
+        <v>-22.16936318476317</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5.312696003037002</v>
+        <v>5.298869659165669</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.4820246023043569</v>
+        <v>-0.3198228893836981</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-19.78157368673573</v>
+        <v>-19.3342431687381</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.39033018578471</v>
+        <v>21.09891607701941</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>17.99939026065374</v>
+        <v>18.66405143573599</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.496930002783018</v>
+        <v>4.461147869696493</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.91962968056007</v>
+        <v>12.07375446425985</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.536972862374643</v>
+        <v>5.108983358159942</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-15.13252127750104</v>
+        <v>-14.91676565974649</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.62264444297186</v>
+        <v>12.46364714666941</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.827794885407558</v>
+        <v>6.790263791782411</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-12.72438277104988</v>
+        <v>-12.29869204300257</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2183493512848646</v>
+        <v>0.2089303557990209</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1533070631458921</v>
+        <v>0.1383434786675894</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5389454445011921</v>
+        <v>-0.5511476370237226</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1095479333694959</v>
+        <v>0.1074043722663014</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.07006917044308665</v>
+        <v>-0.0799874438282426</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6484539993689881</v>
+        <v>-0.6333556542960213</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1596767164881531</v>
+        <v>0.1601594066634671</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.01274528645009693</v>
+        <v>-0.0108038971954747</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5998004657964924</v>
+        <v>-0.6006925708661902</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.068137333492907</v>
+        <v>1.126280961861943</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9094478981960781</v>
+        <v>0.9264816031066067</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1799544202089945</v>
+        <v>0.2411998481275746</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3809621094444758</v>
+        <v>0.3817524251730071</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1788180699613037</v>
+        <v>0.1616162785712074</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.4844394222000182</v>
+        <v>-0.4668901436707749</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4164040017067765</v>
+        <v>0.4215965282797263</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2339915476841958</v>
+        <v>0.2246283068442124</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.4247439804023582</v>
+        <v>-0.4132722558899883</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>7.807346996189662</v>
+        <v>7.655366024713292</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>4.165073147719356</v>
+        <v>4.16409179643906</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-13.0119743046343</v>
+        <v>-13.11204463363002</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.168708997145172</v>
+        <v>3.319958521729196</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.1306646069123832</v>
+        <v>0.04811021156301909</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-16.44499996845903</v>
+        <v>-16.27657393655764</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>6.150231509057384</v>
+        <v>6.280754655802114</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.587159939446975</v>
+        <v>2.596314708138659</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-14.08665291590399</v>
+        <v>-14.20154122777177</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.64430160458203</v>
+        <v>12.6122956043341</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>8.851608359772465</v>
+        <v>8.747437631521723</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-8.883379547192687</v>
+        <v>-8.687289152721894</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.812392764392302</v>
+        <v>7.878018016157254</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.77302569420641</v>
+        <v>4.675367975775452</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-12.32267152368182</v>
+        <v>-12.3446569223775</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>9.449892099481879</v>
+        <v>9.601100702744583</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.072602411698315</v>
+        <v>5.81884579940297</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-11.159624631617</v>
+        <v>-11.20548275118566</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2558838736564775</v>
+        <v>0.2496203317132598</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1315490065112161</v>
+        <v>0.1362744619298228</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4264055402821048</v>
+        <v>-0.4281043336302941</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.08879699051634989</v>
+        <v>0.09374549558606478</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.003906310598314898</v>
+        <v>0.001347600033624126</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.4614504211028413</v>
+        <v>-0.4581647798881266</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1873169478301001</v>
+        <v>0.193170490103776</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.07919822763453511</v>
+        <v>0.07881772653920842</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4313107842209425</v>
+        <v>-0.4315955116521786</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4463217432655213</v>
+        <v>0.4441046053935818</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3086851052335222</v>
+        <v>0.3080103716952518</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.311904537665994</v>
+        <v>-0.3068041719081159</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2350262400829319</v>
+        <v>0.2371445911467169</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1413783461003278</v>
+        <v>0.14023130935862</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3713038022681961</v>
+        <v>-0.3706106184021832</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3012699347907876</v>
+        <v>0.3102169100900297</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1968761706916697</v>
+        <v>0.1850717448153648</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.3559115036848757</v>
+        <v>-0.3581108125870751</v>
       </c>
     </row>
     <row r="46">
